--- a/tge-round-example.xlsx
+++ b/tge-round-example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>tgeSettingsPartProject</t>
   </si>
@@ -44,9 +44,6 @@
     <t>tgeSettingsAmount</t>
   </si>
   <si>
-    <t>ETH</t>
-  </si>
-  <si>
     <t>PartInvestor</t>
   </si>
   <si>
@@ -75,6 +72,21 @@
   </si>
   <si>
     <t>ETH received</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Parts Changes Per Stage</t>
+  </si>
+  <si>
+    <t>Tokens Minted</t>
+  </si>
+  <si>
+    <t>ETH Totals</t>
   </si>
 </sst>
 </file>
@@ -116,12 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,16 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64261954-94D1-4731-8EE4-7AB0A9AC1B41}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="12" width="15.85546875" customWidth="1"/>
@@ -460,39 +475,25 @@
       <c r="B1">
         <v>1000</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
@@ -501,44 +502,38 @@
       <c r="B2">
         <v>25</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>95</v>
-      </c>
-      <c r="G2">
-        <f>ROUNDDOWN(E2/B$5,0)*B$6+B$2</f>
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <f>B$3</f>
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <f>B$4</f>
-        <v>50</v>
-      </c>
-      <c r="J2" s="2">
-        <f ca="1">$F2-K2-L2</f>
-        <v>19</v>
-      </c>
-      <c r="K2" s="2">
-        <f t="shared" ref="K2:L2" ca="1" si="0">$F2*H2/SUM($G2:$I2)</f>
-        <v>38</v>
-      </c>
-      <c r="L2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="M2">
-        <f ca="1">IF(SUM(F$2:F2)&lt;B$1,SUM(F$2:F2),B$1)</f>
-        <v>95</v>
-      </c>
-      <c r="N2">
-        <f ca="1">B$1-M2</f>
-        <v>905</v>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -548,45 +543,48 @@
       <c r="B3">
         <v>50</v>
       </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
       <c r="E3">
-        <f ca="1">E2+RANDBETWEEN(0,300)</f>
-        <v>288</v>
+        <f>ROUNDDOWN(D3/B$5,0)+1</f>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" ca="1" si="1">RANDBETWEEN(1, 100)</f>
-        <v>48</v>
+        <f ca="1">RANDBETWEEN(1, 100)</f>
+        <v>31</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G25" ca="1" si="2">ROUNDDOWN(E3/B$5,0)*B$6+B$2</f>
+        <f>ROUNDDOWN(D3/B$5,0)*B$6+B$2</f>
         <v>25</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H22" si="3">B$3</f>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I22" si="4">B$4</f>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">($M3-$M2)-K3-L3</f>
-        <v>9.6000000000000014</v>
+        <f ca="1">$F3-K3-L3</f>
+        <v>6.2000000000000011</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:L3" ca="1" si="5">($M3-$M2)*H3/SUM($G3:$I3)</f>
-        <v>19.2</v>
+        <f t="shared" ref="K3:L3" ca="1" si="0">$F3*H3/SUM($G3:$I3)</f>
+        <v>12.4</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>19.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.4</v>
       </c>
       <c r="M3">
-        <f ca="1">IF(SUM(F$2:F3)&lt;B$1,SUM(F$2:F3),B$1)</f>
-        <v>143</v>
+        <f ca="1">IF(SUM(F$3:F3)&lt;B$1,SUM(F$3:F3),B$1)</f>
+        <v>31</v>
       </c>
       <c r="N3">
         <f ca="1">B$1-M3</f>
-        <v>857</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -596,45 +594,49 @@
       <c r="B4">
         <v>50</v>
       </c>
+      <c r="D4">
+        <f ca="1">D3+RANDBETWEEN(0,300)</f>
+        <v>294</v>
+      </c>
       <c r="E4">
-        <f t="shared" ref="E4:E22" ca="1" si="6">E3+RANDBETWEEN(0,300)</f>
-        <v>472</v>
+        <f ca="1">ROUNDDOWN(D4/B$5,0)+1</f>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <f t="shared" ref="F4:F29" ca="1" si="1">RANDBETWEEN(1, 100)</f>
+        <v>24</v>
       </c>
       <c r="G4">
+        <f ca="1">ROUNDDOWN(D4/B$5,0)*B$6+B$2</f>
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <f>B$3</f>
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <f>B$4</f>
+        <v>50</v>
+      </c>
+      <c r="J4" s="2">
+        <f ca="1">($M4-$M3)-K4-L4</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:L4" ca="1" si="2">($M4-$M3)*H4/SUM($G4:$I4)</f>
+        <v>9.6</v>
+      </c>
+      <c r="L4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J25" ca="1" si="7">($M4-$M3)-K4-L4</f>
-        <v>12.599999999999998</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" ref="K4:K25" ca="1" si="8">($M4-$M3)*H4/SUM($G4:$I4)</f>
-        <v>25.2</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4:L25" ca="1" si="9">($M4-$M3)*I4/SUM($G4:$I4)</f>
-        <v>25.2</v>
+        <v>9.6</v>
       </c>
       <c r="M4">
-        <f ca="1">IF(SUM(F$2:F4)&lt;B$1,SUM(F$2:F4),B$1)</f>
-        <v>206</v>
+        <f ca="1">IF(SUM(F$3:F4)&lt;B$1,SUM(F$3:F4),B$1)</f>
+        <v>55</v>
       </c>
       <c r="N4">
         <f ca="1">B$1-M4</f>
-        <v>794</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -644,45 +646,49 @@
       <c r="B5">
         <v>1000</v>
       </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D23" ca="1" si="3">D4+RANDBETWEEN(0,300)</f>
+        <v>590</v>
+      </c>
       <c r="E5">
-        <f t="shared" ca="1" si="6"/>
-        <v>623</v>
+        <f ca="1">ROUNDDOWN(D5/B$5,0)+1</f>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D5/B$5,0)*B$6+B$2</f>
         <v>25</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>19.200000000000003</v>
+        <f t="shared" ref="J5:J26" ca="1" si="4">($M5-$M4)-K5-L5</f>
+        <v>3.6000000000000005</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>38.4</v>
+        <f t="shared" ref="K5:K26" ca="1" si="5">($M5-$M4)*H5/SUM($G5:$I5)</f>
+        <v>7.2</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>38.4</v>
+        <f t="shared" ref="L5:L26" ca="1" si="6">($M5-$M4)*I5/SUM($G5:$I5)</f>
+        <v>7.2</v>
       </c>
       <c r="M5">
-        <f ca="1">IF(SUM(F$2:F5)&lt;B$1,SUM(F$2:F5),B$1)</f>
-        <v>302</v>
+        <f ca="1">IF(SUM(F$3:F5)&lt;B$1,SUM(F$3:F5),B$1)</f>
+        <v>73</v>
       </c>
       <c r="N5">
         <f ca="1">B$1-M5</f>
-        <v>698</v>
+        <v>927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -692,847 +698,1117 @@
       <c r="B6">
         <v>25</v>
       </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="3"/>
+        <v>613</v>
+      </c>
       <c r="E6">
-        <f t="shared" ca="1" si="6"/>
-        <v>815</v>
+        <f ca="1">ROUNDDOWN(D6/B$5,0)+1</f>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D6/B$5,0)*B$6+B$2</f>
         <v>25</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5999999999999996</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.400000000000002</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24.8</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>24.8</v>
       </c>
       <c r="M6">
-        <f ca="1">IF(SUM(F$2:F6)&lt;B$1,SUM(F$2:F6),B$1)</f>
-        <v>315</v>
+        <f ca="1">IF(SUM(F$3:F6)&lt;B$1,SUM(F$3:F6),B$1)</f>
+        <v>135</v>
       </c>
       <c r="N6">
         <f ca="1">B$1-M6</f>
-        <v>685</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
+      <c r="D7">
+        <f t="shared" ca="1" si="3"/>
+        <v>636</v>
+      </c>
       <c r="E7">
-        <f t="shared" ca="1" si="6"/>
-        <v>851</v>
+        <f ca="1">ROUNDDOWN(D7/B$5,0)+1</f>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D7/B$5,0)*B$6+B$2</f>
         <v>25</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>15.200000000000003</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.599999999999998</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>30.4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>23.2</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>30.4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>23.2</v>
       </c>
       <c r="M7">
-        <f ca="1">IF(SUM(F$2:F7)&lt;B$1,SUM(F$2:F7),B$1)</f>
-        <v>391</v>
+        <f ca="1">IF(SUM(F$3:F7)&lt;B$1,SUM(F$3:F7),B$1)</f>
+        <v>193</v>
       </c>
       <c r="N7">
         <f ca="1">B$1-M7</f>
-        <v>609</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="D8">
+        <f t="shared" ca="1" si="3"/>
+        <v>704</v>
+      </c>
       <c r="E8">
-        <f t="shared" ca="1" si="6"/>
-        <v>1015</v>
+        <f ca="1">ROUNDDOWN(D8/B$5,0)+1</f>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <f ca="1">ROUNDDOWN(D8/B$5,0)*B$6+B$2</f>
+        <v>25</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>24.333333333333339</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>24.333333333333332</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.4</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>24.333333333333332</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.4</v>
       </c>
       <c r="M8">
-        <f ca="1">IF(SUM(F$2:F8)&lt;B$1,SUM(F$2:F8),B$1)</f>
-        <v>464</v>
+        <f ca="1">IF(SUM(F$3:F8)&lt;B$1,SUM(F$3:F8),B$1)</f>
+        <v>194</v>
       </c>
       <c r="N8">
         <f ca="1">B$1-M8</f>
-        <v>536</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:14">
+      <c r="D9">
+        <f t="shared" ca="1" si="3"/>
+        <v>929</v>
+      </c>
       <c r="E9">
-        <f t="shared" ca="1" si="6"/>
-        <v>1020</v>
+        <f ca="1">ROUNDDOWN(D9/B$5,0)+1</f>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <f ca="1">ROUNDDOWN(D9/B$5,0)*B$6+B$2</f>
+        <v>25</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>11.33333333333333</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8000000000000007</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>11.333333333333334</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>11.333333333333334</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.6</v>
       </c>
       <c r="M9">
-        <f ca="1">IF(SUM(F$2:F9)&lt;B$1,SUM(F$2:F9),B$1)</f>
-        <v>498</v>
+        <f ca="1">IF(SUM(F$3:F9)&lt;B$1,SUM(F$3:F9),B$1)</f>
+        <v>213</v>
       </c>
       <c r="N9">
         <f ca="1">B$1-M9</f>
-        <v>502</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:14">
+      <c r="D10">
+        <f t="shared" ca="1" si="3"/>
+        <v>1155</v>
+      </c>
       <c r="E10">
-        <f t="shared" ca="1" si="6"/>
-        <v>1133</v>
+        <f ca="1">ROUNDDOWN(D10/B$5,0)+1</f>
+        <v>2</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D10/B$5,0)*B$6+B$2</f>
         <v>50</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>20.333333333333339</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>20.333333333333332</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>20.333333333333332</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
       </c>
       <c r="M10">
-        <f ca="1">IF(SUM(F$2:F10)&lt;B$1,SUM(F$2:F10),B$1)</f>
-        <v>559</v>
+        <f ca="1">IF(SUM(F$3:F10)&lt;B$1,SUM(F$3:F10),B$1)</f>
+        <v>276</v>
       </c>
       <c r="N10">
         <f ca="1">B$1-M10</f>
-        <v>441</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
+      <c r="D11">
+        <f t="shared" ca="1" si="3"/>
+        <v>1384</v>
+      </c>
       <c r="E11">
-        <f t="shared" ca="1" si="6"/>
-        <v>1331</v>
+        <f ca="1">ROUNDDOWN(D11/B$5,0)+1</f>
+        <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D11/B$5,0)*B$6+B$2</f>
         <v>50</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>27.666666666666661</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.33333333333333</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>27.666666666666668</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>15.333333333333334</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>27.666666666666668</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>15.333333333333334</v>
       </c>
       <c r="M11">
-        <f ca="1">IF(SUM(F$2:F11)&lt;B$1,SUM(F$2:F11),B$1)</f>
-        <v>642</v>
+        <f ca="1">IF(SUM(F$3:F11)&lt;B$1,SUM(F$3:F11),B$1)</f>
+        <v>322</v>
       </c>
       <c r="N11">
         <f ca="1">B$1-M11</f>
-        <v>358</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="D12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1560</v>
+      </c>
       <c r="E12">
-        <f t="shared" ca="1" si="6"/>
-        <v>1612</v>
+        <f ca="1">ROUNDDOWN(D12/B$5,0)+1</f>
+        <v>2</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D12/B$5,0)*B$6+B$2</f>
         <v>50</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.6666666666666652</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.666666666666661</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.666666666666667</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31.666666666666668</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.666666666666667</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.666666666666668</v>
       </c>
       <c r="M12">
-        <f ca="1">IF(SUM(F$2:F12)&lt;B$1,SUM(F$2:F12),B$1)</f>
-        <v>659</v>
+        <f ca="1">IF(SUM(F$3:F12)&lt;B$1,SUM(F$3:F12),B$1)</f>
+        <v>417</v>
       </c>
       <c r="N12">
         <f ca="1">B$1-M12</f>
-        <v>341</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:14">
+      <c r="D13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1733</v>
+      </c>
       <c r="E13">
-        <f t="shared" ca="1" si="6"/>
-        <v>1644</v>
+        <f ca="1">ROUNDDOWN(D13/B$5,0)+1</f>
+        <v>2</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D13/B$5,0)*B$6+B$2</f>
         <v>50</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.66666666666667</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="M13">
-        <f ca="1">IF(SUM(F$2:F13)&lt;B$1,SUM(F$2:F13),B$1)</f>
-        <v>740</v>
+        <f ca="1">IF(SUM(F$3:F13)&lt;B$1,SUM(F$3:F13),B$1)</f>
+        <v>452</v>
       </c>
       <c r="N13">
         <f ca="1">B$1-M13</f>
-        <v>260</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:14">
+      <c r="D14">
+        <f t="shared" ca="1" si="3"/>
+        <v>1812</v>
+      </c>
       <c r="E14">
-        <f ca="1">E13+RANDBETWEEN(0,300)</f>
-        <v>1719</v>
+        <f ca="1">ROUNDDOWN(D14/B$5,0)+1</f>
+        <v>2</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D14/B$5,0)*B$6+B$2</f>
         <v>50</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.3333333333333337</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M14">
-        <f ca="1">IF(SUM(F$2:F14)&lt;B$1,SUM(F$2:F14),B$1)</f>
-        <v>809</v>
+        <f ca="1">IF(SUM(F$3:F14)&lt;B$1,SUM(F$3:F14),B$1)</f>
+        <v>456</v>
       </c>
       <c r="N14">
         <f ca="1">B$1-M14</f>
-        <v>191</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:14">
+      <c r="D15">
+        <f ca="1">D14+RANDBETWEEN(0,300)</f>
+        <v>2061</v>
+      </c>
       <c r="E15">
-        <f t="shared" ca="1" si="6"/>
-        <v>1941</v>
+        <f ca="1">ROUNDDOWN(D15/B$5,0)+1</f>
+        <v>3</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <f ca="1">ROUNDDOWN(D15/B$5,0)*B$6+B$2</f>
+        <v>75</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>36.428571428571431</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24.285714285714285</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>24.285714285714285</v>
       </c>
       <c r="M15">
-        <f ca="1">IF(SUM(F$2:F15)&lt;B$1,SUM(F$2:F15),B$1)</f>
-        <v>881</v>
+        <f ca="1">IF(SUM(F$3:F15)&lt;B$1,SUM(F$3:F15),B$1)</f>
+        <v>541</v>
       </c>
       <c r="N15">
         <f ca="1">B$1-M15</f>
-        <v>119</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:14">
+      <c r="D16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2094</v>
+      </c>
       <c r="E16">
-        <f t="shared" ca="1" si="6"/>
-        <v>2108</v>
+        <f ca="1">ROUNDDOWN(D16/B$5,0)+1</f>
+        <v>3</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D16/B$5,0)*B$6+B$2</f>
         <v>75</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>17.142857142857139</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28.714285714285719</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>11.428571428571429</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>19.142857142857142</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>11.428571428571429</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19.142857142857142</v>
       </c>
       <c r="M16">
-        <f ca="1">IF(SUM(F$2:F16)&lt;B$1,SUM(F$2:F16),B$1)</f>
-        <v>921</v>
+        <f ca="1">IF(SUM(F$3:F16)&lt;B$1,SUM(F$3:F16),B$1)</f>
+        <v>608</v>
       </c>
       <c r="N16">
         <f ca="1">B$1-M16</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="D17">
+        <f t="shared" ca="1" si="3"/>
+        <v>2286</v>
+      </c>
       <c r="E17">
-        <f t="shared" ca="1" si="6"/>
-        <v>2147</v>
+        <f ca="1">ROUNDDOWN(D17/B$5,0)+1</f>
+        <v>3</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D17/B$5,0)*B$6+B$2</f>
         <v>75</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>27.857142857142858</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>18.571428571428573</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>18.571428571428573</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
       </c>
       <c r="M17">
-        <f ca="1">IF(SUM(F$2:F17)&lt;B$1,SUM(F$2:F17),B$1)</f>
-        <v>986</v>
+        <f ca="1">IF(SUM(F$3:F17)&lt;B$1,SUM(F$3:F17),B$1)</f>
+        <v>678</v>
       </c>
       <c r="N17">
         <f ca="1">B$1-M17</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="D18">
+        <f t="shared" ca="1" si="3"/>
+        <v>2469</v>
+      </c>
       <c r="E18">
-        <f t="shared" ca="1" si="6"/>
-        <v>2155</v>
+        <f ca="1">ROUNDDOWN(D18/B$5,0)+1</f>
+        <v>3</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D18/B$5,0)*B$6+B$2</f>
         <v>75</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25.714285714285719</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17.142857142857142</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>17.142857142857142</v>
       </c>
       <c r="M18">
-        <f ca="1">IF(SUM(F$2:F18)&lt;B$1,SUM(F$2:F18),B$1)</f>
-        <v>1000</v>
+        <f ca="1">IF(SUM(F$3:F18)&lt;B$1,SUM(F$3:F18),B$1)</f>
+        <v>738</v>
       </c>
       <c r="N18">
         <f ca="1">B$1-M18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="D19">
+        <f t="shared" ca="1" si="3"/>
+        <v>2566</v>
+      </c>
       <c r="E19">
-        <f t="shared" ca="1" si="6"/>
-        <v>2438</v>
+        <f ca="1">ROUNDDOWN(D19/B$5,0)+1</f>
+        <v>3</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D19/B$5,0)*B$6+B$2</f>
         <v>75</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.85714285714285721</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M19">
-        <f ca="1">IF(SUM(F$2:F19)&lt;B$1,SUM(F$2:F19),B$1)</f>
-        <v>1000</v>
+        <f ca="1">IF(SUM(F$3:F19)&lt;B$1,SUM(F$3:F19),B$1)</f>
+        <v>740</v>
       </c>
       <c r="N19">
         <f ca="1">B$1-M19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="D20">
+        <f t="shared" ca="1" si="3"/>
+        <v>2676</v>
+      </c>
       <c r="E20">
-        <f t="shared" ca="1" si="6"/>
-        <v>2711</v>
+        <f ca="1">ROUNDDOWN(D20/B$5,0)+1</f>
+        <v>3</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D20/B$5,0)*B$6+B$2</f>
         <v>75</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.142857142857141</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.4285714285714288</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.4285714285714288</v>
       </c>
       <c r="M20">
-        <f ca="1">IF(SUM(F$2:F20)&lt;B$1,SUM(F$2:F20),B$1)</f>
-        <v>1000</v>
+        <f ca="1">IF(SUM(F$3:F20)&lt;B$1,SUM(F$3:F20),B$1)</f>
+        <v>773</v>
       </c>
       <c r="N20">
         <f ca="1">B$1-M20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14">
+      <c r="D21">
+        <f t="shared" ca="1" si="3"/>
+        <v>2907</v>
+      </c>
       <c r="E21">
-        <f t="shared" ca="1" si="6"/>
-        <v>2738</v>
+        <f ca="1">ROUNDDOWN(D21/B$5,0)+1</f>
+        <v>3</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D21/B$5,0)*B$6+B$2</f>
         <v>75</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38.571428571428562</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>25.714285714285715</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>25.714285714285715</v>
       </c>
       <c r="M21">
-        <f ca="1">IF(SUM(F$2:F21)&lt;B$1,SUM(F$2:F21),B$1)</f>
-        <v>1000</v>
+        <f ca="1">IF(SUM(F$3:F21)&lt;B$1,SUM(F$3:F21),B$1)</f>
+        <v>863</v>
       </c>
       <c r="N21">
         <f ca="1">B$1-M21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="D22">
+        <f t="shared" ca="1" si="3"/>
+        <v>2971</v>
+      </c>
       <c r="E22">
-        <f t="shared" ca="1" si="6"/>
-        <v>2934</v>
+        <f ca="1">ROUNDDOWN(D22/B$5,0)+1</f>
+        <v>3</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">ROUNDDOWN(D22/B$5,0)*B$6+B$2</f>
         <v>75</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f>B$3</f>
         <v>50</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f>B$4</f>
         <v>50</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5714285714285712</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
       <c r="M22">
-        <f ca="1">IF(SUM(F$2:F22)&lt;B$1,SUM(F$2:F22),B$1)</f>
-        <v>1000</v>
+        <f ca="1">IF(SUM(F$3:F22)&lt;B$1,SUM(F$3:F22),B$1)</f>
+        <v>869</v>
       </c>
       <c r="N22">
         <f ca="1">B$1-M22</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14">
+      <c r="D23">
+        <f t="shared" ca="1" si="3"/>
+        <v>3254</v>
+      </c>
+      <c r="E23">
+        <f ca="1">ROUNDDOWN(D23/B$5,0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="G23">
+        <f ca="1">ROUNDDOWN(D23/B$5,0)*B$6+B$2</f>
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <f>B$3</f>
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <f>B$4</f>
+        <v>50</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.5</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>24.5</v>
+      </c>
+      <c r="M23">
+        <f ca="1">IF(SUM(F$3:F23)&lt;B$1,SUM(F$3:F23),B$1)</f>
+        <v>967</v>
+      </c>
+      <c r="N23">
+        <f ca="1">B$1-M23</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14">
+      <c r="D24">
+        <f t="shared" ref="D24:D26" ca="1" si="7">D23+RANDBETWEEN(0,300)</f>
+        <v>3454</v>
+      </c>
+      <c r="E24">
+        <f ca="1">ROUNDDOWN(D24/B$5,0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <f ca="1">ROUNDDOWN(D24/B$5,0)*B$6+B$2</f>
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H26" si="8">B$3</f>
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I26" si="9">B$4</f>
+        <v>50</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.25</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.25</v>
+      </c>
+      <c r="M24">
+        <f ca="1">IF(SUM(F$3:F24)&lt;B$1,SUM(F$3:F24),B$1)</f>
+        <v>996</v>
+      </c>
+      <c r="N24">
+        <f ca="1">B$1-M24</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14">
+      <c r="D25">
+        <f t="shared" ca="1" si="7"/>
+        <v>3634</v>
+      </c>
+      <c r="E25">
+        <f ca="1">ROUNDDOWN(D25/B$5,0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <f ca="1">ROUNDDOWN(D25/B$5,0)*B$6+B$2</f>
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f ca="1">IF(SUM(F$3:F25)&lt;B$1,SUM(F$3:F25),B$1)</f>
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <f ca="1">B$1-M25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:14">
-      <c r="E23">
-        <f t="shared" ref="E23:E25" ca="1" si="10">E22+RANDBETWEEN(0,300)</f>
-        <v>3109</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="2"/>
+    <row r="26" spans="4:14">
+      <c r="D26">
+        <f t="shared" ca="1" si="7"/>
+        <v>3793</v>
+      </c>
+      <c r="E26">
+        <f ca="1">ROUNDDOWN(D26/B$5,0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <f ca="1">ROUNDDOWN(D26/B$5,0)*B$6+B$2</f>
         <v>100</v>
       </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H25" si="11">B$3</f>
-        <v>50</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23:I25" si="12">B$4</f>
-        <v>50</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" ca="1" si="7"/>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="K23" s="2">
-        <f t="shared" ca="1" si="8"/>
+      <c r="K26" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" ca="1" si="9"/>
+      <c r="L26" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M23">
-        <f ca="1">IF(SUM(F$2:F23)&lt;B$1,SUM(F$2:F23),B$1)</f>
+      <c r="M26">
+        <f ca="1">IF(SUM(F$3:F26)&lt;B$1,SUM(F$3:F26),B$1)</f>
         <v>1000</v>
       </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N25" ca="1" si="13">B$1-M23</f>
+      <c r="N26">
+        <f ca="1">B$1-M26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:14">
-      <c r="E24">
+    <row r="27" spans="4:14">
+      <c r="D27">
+        <f t="shared" ref="D27:D29" ca="1" si="10">D26+RANDBETWEEN(0,300)</f>
+        <v>3800</v>
+      </c>
+      <c r="E27">
+        <f ca="1">ROUNDDOWN(D27/B$5,0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <f ca="1">ROUNDDOWN(D27/B$5,0)*B$6+B$2</f>
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H29" si="11">B$3</f>
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I29" si="12">B$4</f>
+        <v>50</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ref="J27:J29" ca="1" si="13">($M27-$M26)-K27-L27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27:K29" ca="1" si="14">($M27-$M26)*H27/SUM($G27:$I27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ref="L27:L29" ca="1" si="15">($M27-$M26)*I27/SUM($G27:$I27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f ca="1">IF(SUM(F$3:F27)&lt;B$1,SUM(F$3:F27),B$1)</f>
+        <v>1000</v>
+      </c>
+      <c r="N27">
+        <f ca="1">B$1-M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14">
+      <c r="D28">
         <f t="shared" ca="1" si="10"/>
-        <v>3348</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="2"/>
+        <v>3805</v>
+      </c>
+      <c r="E28">
+        <f ca="1">ROUNDDOWN(D28/B$5,0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <f ca="1">ROUNDDOWN(D28/B$5,0)*B$6+B$2</f>
         <v>100</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="I24">
+      <c r="I28">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f ca="1">IF(SUM(F$2:F24)&lt;B$1,SUM(F$2:F24),B$1)</f>
-        <v>1000</v>
-      </c>
-      <c r="N24">
+      <c r="J28" s="2">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25">
+      <c r="K28" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f ca="1">IF(SUM(F$3:F28)&lt;B$1,SUM(F$3:F28),B$1)</f>
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <f ca="1">B$1-M28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14">
+      <c r="D29">
         <f t="shared" ca="1" si="10"/>
-        <v>3403</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="2"/>
+        <v>3985</v>
+      </c>
+      <c r="E29">
+        <f ca="1">ROUNDDOWN(D29/B$5,0)+1</f>
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <f ca="1">ROUNDDOWN(D29/B$5,0)*B$6+B$2</f>
         <v>100</v>
       </c>
-      <c r="H25">
+      <c r="H29">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="I25">
+      <c r="I29">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f ca="1">IF(SUM(F$2:F25)&lt;B$1,SUM(F$2:F25),B$1)</f>
-        <v>1000</v>
-      </c>
-      <c r="N25">
+      <c r="J29" s="2">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
+      <c r="K29" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f ca="1">IF(SUM(F$3:F29)&lt;B$1,SUM(F$3:F29),B$1)</f>
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <f ca="1">B$1-M29</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
